--- a/npbenchmark-main/travel_thief/LKH-origin/ttp运行结果.xlsx
+++ b/npbenchmark-main/travel_thief/LKH-origin/ttp运行结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\travel_thief\LKH-origin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE498C0-AED3-44A9-B6D2-27B6EE5CE395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AD34BE-852F-4EDA-8FC8-54ED7732C4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>object value</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,10 @@
   </si>
   <si>
     <t>时间太长了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_cities/2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,7 +688,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -835,6 +839,23 @@
         <v>27</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
@@ -878,5 +899,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/npbenchmark-main/travel_thief/LKH-origin/ttp运行结果.xlsx
+++ b/npbenchmark-main/travel_thief/LKH-origin/ttp运行结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\travel_thief\LKH-origin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AD34BE-852F-4EDA-8FC8-54ED7732C4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121AD921-3213-4F7B-8AF2-7889514ADDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
   <si>
     <t>object value</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,10 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DIMENSION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DBL_MAX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,11 +136,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间太长了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>num_cities/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_cities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算不出来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -685,10 +685,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF28807C-08BA-494B-9094-D40451B3363B}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -706,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>
@@ -738,36 +738,30 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>182814</v>
-      </c>
       <c r="C3">
-        <v>211.98599999999999</v>
+        <v>37.230899999999998</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
-        <v>27</v>
+      <c r="G3">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -778,42 +772,36 @@
         <v>182814</v>
       </c>
       <c r="C4">
-        <v>106.245</v>
+        <v>211.98599999999999</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
         <v>26</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>182879</v>
-      </c>
-      <c r="C5">
-        <v>63.964500000000001</v>
-      </c>
       <c r="D5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
         <v>26</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -821,79 +809,177 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>182870</v>
+        <v>182814</v>
       </c>
       <c r="C6">
-        <v>82.135099999999994</v>
+        <v>106.245</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
         <v>26</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
+      <c r="B7">
+        <v>182879</v>
+      </c>
+      <c r="C7">
+        <v>63.964500000000001</v>
+      </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>182917</v>
+      </c>
+      <c r="C8">
+        <v>45.6541</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>182870</v>
+      </c>
+      <c r="C9">
+        <v>82.135099999999994</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>182814</v>
+      </c>
+      <c r="C10">
+        <v>160.095</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>182814</v>
+      </c>
+      <c r="C11">
+        <v>124.96</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
         <v>31</v>
       </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
         <v>29</v>
       </c>
-      <c r="C20" t="s">
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
         <v>30</v>
       </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21" t="s">
-        <v>27</v>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/npbenchmark-main/travel_thief/LKH-origin/ttp运行结果.xlsx
+++ b/npbenchmark-main/travel_thief/LKH-origin/ttp运行结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\npbenchmark\npbenchmark-main\travel_thief\LKH-origin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121AD921-3213-4F7B-8AF2-7889514ADDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F014159F-A26F-4C04-8021-DB177AC99C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
   <si>
     <t>object value</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,10 @@
   </si>
   <si>
     <t>算不出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_cities*2/3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -685,10 +689,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF28807C-08BA-494B-9094-D40451B3363B}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -697,7 +701,7 @@
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
     <col min="3" max="3" width="12.21875" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -809,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>182814</v>
+        <v>182823</v>
       </c>
       <c r="C6">
         <v>106.245</v>
@@ -901,10 +905,10 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>182814</v>
+        <v>182826</v>
       </c>
       <c r="C10">
-        <v>160.095</v>
+        <v>39.809100000000001</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -924,16 +928,16 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>182814</v>
+        <v>182826</v>
       </c>
       <c r="C11">
-        <v>124.96</v>
+        <v>40.209499999999998</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -942,23 +946,26 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>182828</v>
+      </c>
+      <c r="C12">
+        <v>39.899000000000001</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
         <v>29</v>
       </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -973,12 +980,32 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
         <v>30</v>
       </c>
-      <c r="F24">
-        <v>5</v>
-      </c>
-      <c r="G24">
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
         <v>10</v>
       </c>
     </row>
